--- a/data/CALCULATION _TEMPLATE_19.10.xlsx
+++ b/data/CALCULATION _TEMPLATE_19.10.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BCA47A-F1C6-464E-BE2E-EBFC30BF4A6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A40AD48-03F7-4432-B2A4-FDF3F0F7FB0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1054,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="O1" s="18">
         <f>SUM(N2:N45)</f>
-        <v>54835.912048192775</v>
+        <v>54836.100000000006</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -1143,23 +1143,23 @@
       </c>
       <c r="J2" s="47">
         <f>K2/$B$1</f>
-        <v>362.01634229224595</v>
+        <v>362.01794871794868</v>
       </c>
       <c r="K2" s="47">
         <f>L2/F2</f>
-        <v>14118.637349397592</v>
+        <v>14118.699999999999</v>
       </c>
       <c r="L2" s="47">
         <f t="shared" ref="L2" si="0">$B$36*I2</f>
-        <v>42355.912048192775</v>
+        <v>42356.1</v>
       </c>
       <c r="M2" s="28">
         <f>IF(N2=0,0,N2/F2)</f>
-        <v>18278.637349397592</v>
+        <v>18278.7</v>
       </c>
       <c r="N2" s="29">
         <f>IF(F2=0,0,$B$18*I2)</f>
-        <v>54835.912048192775</v>
+        <v>54836.100000000006</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="B10" s="60">
         <f>SUM(L2:L45)</f>
-        <v>42355.912048192775</v>
+        <v>42356.1</v>
       </c>
       <c r="C10" s="5"/>
       <c r="E10" s="8"/>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="B11" s="32">
         <f>B10*0.2</f>
-        <v>8471.1824096385553</v>
+        <v>8471.2199999999993</v>
       </c>
       <c r="C11" s="5"/>
       <c r="E11" s="8"/>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B12" s="34">
         <f>B10+B11</f>
-        <v>50827.094457831328</v>
+        <v>50827.32</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8">
@@ -1688,7 +1688,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="54">
-        <f>IF(B31&gt;5999,B1*(B4+B5+((B4+B5 + B8)*0.2)) + B8,B1*(B4+B5+((B4+B5)*0.2)))</f>
+        <f>IF((B31+B4)&gt;5999,B1*(B4+B5+B8+((B4+B5 + B8)*0.2)),B1*(B4+B5+((B4+B5)*0.2)))</f>
         <v>14976</v>
       </c>
       <c r="E15" s="8"/>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="B16" s="37">
         <f>IF(B13=0,B12+B15,B14+B15)</f>
-        <v>65803.094457831321</v>
+        <v>65803.320000000007</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B18" s="21">
         <f>B16*5/6</f>
-        <v>54835.912048192775</v>
+        <v>54836.100000000006</v>
       </c>
       <c r="C18" s="14"/>
       <c r="E18" s="8"/>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="B19" s="25">
         <f>B18*0.2</f>
-        <v>10967.182409638555</v>
+        <v>10967.220000000001</v>
       </c>
       <c r="C19" s="14"/>
       <c r="E19" s="8"/>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="B20" s="21">
         <f>B18+B19</f>
-        <v>65803.094457831336</v>
+        <v>65803.320000000007</v>
       </c>
       <c r="C20" s="14"/>
       <c r="E20" s="8"/>
@@ -2451,8 +2451,8 @@
         <v>19</v>
       </c>
       <c r="B33" s="10">
-        <f>B32/((100-B3)/100)</f>
-        <v>993.79518072289159</v>
+        <f>ROUND(B32/((100-B3)/100),2)</f>
+        <v>993.8</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8">
@@ -2535,7 +2535,7 @@
       </c>
       <c r="B35" s="48">
         <f>B33*B1</f>
-        <v>38758.012048192773</v>
+        <v>38758.199999999997</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="B36" s="20">
         <f>B35+B25+B24</f>
-        <v>42355.912048192775</v>
+        <v>42356.1</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8">
